--- a/sheets/Coding Decoded Two Pointer SDE Sheet.xlsx
+++ b/sheets/Coding Decoded Two Pointer SDE Sheet.xlsx
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -361,6 +361,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -422,10 +430,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -451,9 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -479,8 +485,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -697,7 +709,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -732,7 +744,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -744,12 +756,12 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -761,12 +773,12 @@
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -778,12 +790,12 @@
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -795,12 +807,12 @@
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -812,29 +824,29 @@
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -846,12 +858,12 @@
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -863,12 +875,12 @@
       <c r="D12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -880,12 +892,12 @@
       <c r="D13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -897,12 +909,12 @@
       <c r="D14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -914,12 +926,12 @@
       <c r="D15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -931,18 +943,18 @@
       <c r="D16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -950,7 +962,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -962,12 +974,12 @@
       <c r="D18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -979,35 +991,35 @@
       <c r="D19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -1015,13 +1027,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="13">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -1029,7 +1041,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="13">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1041,18 +1053,18 @@
       <c r="D23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -1060,24 +1072,24 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="13">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1089,12 +1101,12 @@
       <c r="D26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1106,7 +1118,7 @@
       <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1139,16 +1151,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="13">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>79</v>
       </c>
     </row>
